--- a/Status/Importants.xlsx
+++ b/Status/Importants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT Branch\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA126881-EFDF-47F4-A14A-00A789BE79FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B2CAA4-E4CC-496F-98CD-D06003BC612F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{EA588CC7-F7CD-441A-A2DF-E8EE0DE5ABCC}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Diagram" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
   <si>
     <t>Office Category</t>
   </si>
@@ -47,9 +46,6 @@
     <t>Reject</t>
   </si>
   <si>
-    <t>Check Officer</t>
-  </si>
-  <si>
     <t>User Status</t>
   </si>
   <si>
@@ -207,6 +203,12 @@
   </si>
   <si>
     <t>Ministry Recommond Officer</t>
+  </si>
+  <si>
+    <t>Office Recomond Officer</t>
+  </si>
+  <si>
+    <t>Have a District Office -5</t>
   </si>
 </sst>
 </file>
@@ -351,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -359,6 +361,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -432,6 +435,448 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317501</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52D19D5-1BF8-4594-9F4F-418C4F419876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="3661833"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphic 3" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76084190-88D0-42C9-8283-124C0EADE080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="3661833"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FFFBB53-500D-4F01-B6CA-6B12BDA807D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="3852333"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B58409-A214-43EC-AD75-9921121A675B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="4042833"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Graphic 6" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D66DB1-1551-4F9E-8B10-4DD5BE589D5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="4233333"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Graphic 7" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9169365-6312-4A02-A0B1-CD3AFC75A213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="4423833"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Graphic 8" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AAF34D-C2D7-47F4-9356-697261DA6329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="4614333"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Graphic 9" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C552145A-9E43-4A3C-BE55-4FF26AD0E617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="4804833"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphic 10" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B934A123-54C6-443B-A7AB-8527EA3E16EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="4995333"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2486,10 +2931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81067F39-39BC-427C-B7A8-196E65E42EEC}">
-  <dimension ref="A1:BF39"/>
+  <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:BF9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,177 +2944,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6" t="s">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6" t="s">
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6" t="s">
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6" t="s">
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2844,7 +3289,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -2954,7 +3399,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -3076,7 +3521,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -3112,7 +3557,7 @@
         <v>128</v>
       </c>
       <c r="Y6" s="3">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="3">
         <v>128</v>
@@ -3216,7 +3661,7 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -3252,7 +3697,7 @@
         <v>124</v>
       </c>
       <c r="S7" s="3">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T7" s="3">
         <v>124</v>
@@ -3373,8 +3818,8 @@
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
+      <c r="A8" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -3410,7 +3855,7 @@
         <v>130</v>
       </c>
       <c r="M8" s="3">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N8" s="3">
         <v>130</v>
@@ -3419,7 +3864,7 @@
         <v>138</v>
       </c>
       <c r="P8" s="3">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="3">
         <v>138</v>
@@ -3428,7 +3873,7 @@
         <v>124</v>
       </c>
       <c r="S8" s="3">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T8" s="3">
         <v>124</v>
@@ -3708,70 +4153,70 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -3782,77 +4227,86 @@
       <c r="B20">
         <v>10</v>
       </c>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>18</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B24">
-        <v>26</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
       <c r="B25">
-        <v>30</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26">
-        <v>34</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27">
-        <v>38</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28">
-        <v>42</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
       <c r="B29">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3860,7 +4314,7 @@
         <v>23</v>
       </c>
       <c r="B30">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3868,7 +4322,7 @@
         <v>24</v>
       </c>
       <c r="B31">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3876,15 +4330,15 @@
         <v>25</v>
       </c>
       <c r="B32">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +4346,7 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,23 +4354,23 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,14 +4378,6 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
         <v>86</v>
       </c>
     </row>
@@ -3971,6 +4417,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3978,7 +4425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A04FE59-33E1-4213-AE0B-A80D024008C8}">
   <dimension ref="B8:BC31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
@@ -3986,205 +4433,205 @@
   <sheetData>
     <row r="8" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="9:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="AJ9" s="15" t="s">
+      <c r="I9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="AJ9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK9" s="17"/>
+      <c r="AM9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN9" s="17"/>
+      <c r="AP9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ9" s="17"/>
+      <c r="AS9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT9" s="17"/>
+      <c r="AV9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AK9" s="16"/>
-      <c r="AM9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN9" s="16"/>
-      <c r="AP9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ9" s="16"/>
-      <c r="AS9" s="15" t="s">
+      <c r="AW9" s="17"/>
+      <c r="AY9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AT9" s="16"/>
-      <c r="AV9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW9" s="16"/>
-      <c r="AY9" s="15" t="s">
+      <c r="AZ9" s="17"/>
+      <c r="BB9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AZ9" s="16"/>
-      <c r="BB9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC9" s="16"/>
+      <c r="BC9" s="17"/>
     </row>
     <row r="10" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="18"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="18"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="18"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="18"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="18"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="18"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="19"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="19"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="19"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="19"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="19"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="19"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="19"/>
     </row>
     <row r="12" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="9:55" x14ac:dyDescent="0.25">
-      <c r="I13" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="AD13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE13" s="16"/>
-      <c r="AG13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH13" s="16"/>
+      <c r="I13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="AD13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13" s="17"/>
+      <c r="AG13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH13" s="17"/>
     </row>
     <row r="14" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="18"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="19"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="19"/>
     </row>
     <row r="16" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I17" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="16"/>
-      <c r="X17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y17" s="16"/>
-      <c r="AA17" s="15" t="s">
+      <c r="I17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="X17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y17" s="17"/>
+      <c r="AA17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB17" s="17"/>
+      <c r="AD17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="16"/>
-      <c r="AD17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE17" s="16"/>
+      <c r="AE17" s="17"/>
     </row>
     <row r="18" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="18"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="18"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="19"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="19"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="19"/>
     </row>
     <row r="19" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="F20" s="11" t="s">
+      <c r="B20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="F20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I22" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="16"/>
-      <c r="R22" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="S22" s="20"/>
-      <c r="U22" s="11" t="s">
+      <c r="I22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="R22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="21"/>
+      <c r="U22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="V22" s="13"/>
+      <c r="X22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="V22" s="12"/>
-      <c r="X22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y22" s="20"/>
+      <c r="Y22" s="21"/>
     </row>
     <row r="23" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="22"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="14"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="22"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="23"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="15"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="23"/>
     </row>
     <row r="25" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I26" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="L26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="12"/>
-      <c r="O26" s="11" t="s">
+      <c r="I26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="L26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="O26" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="12"/>
-      <c r="R26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S26" s="12"/>
+      <c r="P26" s="13"/>
+      <c r="R26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" s="13"/>
     </row>
     <row r="27" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="14"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="14"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="14"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="15"/>
     </row>
     <row r="29" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I30" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="16"/>
-      <c r="L30" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M30" s="12"/>
-      <c r="O30" s="11" t="s">
+      <c r="I30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="L30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="13"/>
+      <c r="O30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P30" s="12"/>
+      <c r="P30" s="13"/>
     </row>
     <row r="31" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="14"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="15"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="28">
